--- a/document/doan2.xlsx
+++ b/document/doan2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B52A06-E7E1-4AE0-B7CB-FC968FEBA51A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A98C8F4-D508-4182-98AD-D90D3FAFA0A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A567FFFA-55CA-4D8B-ADCD-0B321749E4D3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
   <si>
     <t>sinh viên</t>
   </si>
@@ -43,9 +43,6 @@
     <t xml:space="preserve">tên </t>
   </si>
   <si>
-    <t>lớp</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
@@ -137,6 +134,36 @@
   </si>
   <si>
     <t>thứ</t>
+  </si>
+  <si>
+    <t>ảnh</t>
+  </si>
+  <si>
+    <t>điểm danh</t>
+  </si>
+  <si>
+    <t>mã</t>
+  </si>
+  <si>
+    <t>mã lịch học</t>
+  </si>
+  <si>
+    <t>ngày</t>
+  </si>
+  <si>
+    <t>mã giáo viên</t>
+  </si>
+  <si>
+    <t>điểm danh 2</t>
+  </si>
+  <si>
+    <t>mã điểm danh</t>
+  </si>
+  <si>
+    <t>tình trạng</t>
+  </si>
+  <si>
+    <t>giáo vụ</t>
   </si>
 </sst>
 </file>
@@ -210,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -218,6 +245,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -532,18 +560,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF15D30-B2D9-420A-9D63-70DF9E283B2E}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K9" sqref="K8:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.3984375" customWidth="1"/>
+    <col min="10" max="10" width="3.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -552,42 +586,34 @@
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5"/>
+        <v>6</v>
+      </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>42</v>
       </c>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="5"/>
-      <c r="E2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="5"/>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -602,131 +628,104 @@
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
+      <c r="A4" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
+      <c r="C4" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="E5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>31</v>
+      <c r="A8" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="4" t="s">
-        <v>31</v>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
+      <c r="A9" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="3" t="s">
-        <v>6</v>
+      <c r="C9" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
+      <c r="A10" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+      <c r="C10" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -750,262 +749,323 @@
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>14</v>
+      <c r="A13" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>30</v>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>7</v>
-      </c>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>18</v>
-      </c>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="C19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
+      <c r="J20" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="3" t="s">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="5"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
+      <c r="D24" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="E24" s="5"/>
-      <c r="F24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+      <c r="F24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="F25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" s="3" t="s">
+      <c r="M25" s="5"/>
+      <c r="N25" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M27" s="5"/>
+      <c r="N27" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C27" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C28" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="M28" s="5"/>
+      <c r="N28" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M29" s="5"/>
+      <c r="N29" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D32" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>